--- a/Data/CapacityLimit.xlsx
+++ b/Data/CapacityLimit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{6E8E3ABF-E1D4-487D-BFAA-0E18E1E721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3193DFC4-2465-4069-9FD4-9629058CBE72}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{6E8E3ABF-E1D4-487D-BFAA-0E18E1E721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6F5423-6577-4496-A619-19FB1530ED34}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78BD2541-F343-4015-B5CC-84BA663EC01C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{78BD2541-F343-4015-B5CC-84BA663EC01C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10000000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10000000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
